--- a/Kode/Server2/Logs/lora_node2/2020-05-15.xlsx
+++ b/Kode/Server2/Logs/lora_node2/2020-05-15.xlsx
@@ -13503,7 +13503,7 @@
         <v>220.185</v>
       </c>
       <c r="F657" t="n">
-        <v>2.64222</v>
+        <v>2642.22</v>
       </c>
     </row>
     <row r="658">
@@ -13523,7 +13523,7 @@
         <v>193.545</v>
       </c>
       <c r="F658" t="n">
-        <v>2.32254</v>
+        <v>2322.54</v>
       </c>
     </row>
     <row r="659">
@@ -13543,7 +13543,7 @@
         <v>167.01</v>
       </c>
       <c r="F659" t="n">
-        <v>2.00412</v>
+        <v>2004.12</v>
       </c>
     </row>
     <row r="660">
@@ -13563,7 +13563,7 @@
         <v>215.265</v>
       </c>
       <c r="F660" t="n">
-        <v>2.58318</v>
+        <v>2583.18</v>
       </c>
     </row>
     <row r="661">
@@ -13583,7 +13583,7 @@
         <v>198.6</v>
       </c>
       <c r="F661" t="n">
-        <v>2.3832</v>
+        <v>2383.2</v>
       </c>
     </row>
     <row r="662">
@@ -13603,7 +13603,7 @@
         <v>185.565</v>
       </c>
       <c r="F662" t="n">
-        <v>2.22678</v>
+        <v>2226.78</v>
       </c>
     </row>
     <row r="663">
@@ -13623,7 +13623,7 @@
         <v>152.88</v>
       </c>
       <c r="F663" t="n">
-        <v>1.83456</v>
+        <v>1834.56</v>
       </c>
     </row>
     <row r="664">
@@ -13643,7 +13643,7 @@
         <v>131.88</v>
       </c>
       <c r="F664" t="n">
-        <v>1.58256</v>
+        <v>1582.56</v>
       </c>
     </row>
     <row r="665">
@@ -13663,7 +13663,7 @@
         <v>136.86</v>
       </c>
       <c r="F665" t="n">
-        <v>1.64232</v>
+        <v>1642.32</v>
       </c>
     </row>
     <row r="666">
@@ -13683,7 +13683,7 @@
         <v>150.675</v>
       </c>
       <c r="F666" t="n">
-        <v>1.8081</v>
+        <v>1808.1</v>
       </c>
     </row>
     <row r="667">
@@ -13703,7 +13703,7 @@
         <v>127.77</v>
       </c>
       <c r="F667" t="n">
-        <v>1.53324</v>
+        <v>1533.24</v>
       </c>
     </row>
     <row r="668">
@@ -13743,7 +13743,7 @@
         <v>0.465</v>
       </c>
       <c r="F669" t="n">
-        <v>0.5803199999999999</v>
+        <v>580.3199999999999</v>
       </c>
     </row>
   </sheetData>
